--- a/data/trans_camb/P5_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,3</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 6,61</t>
+          <t>-6,93; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 5,79</t>
+          <t>-8,18; 6,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,29</t>
+          <t>-5,81; 4,55</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>-1,97%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,37; 60,23</t>
+          <t>-42,97; 80,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 40,28</t>
+          <t>-39,21; 53,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 31,2</t>
+          <t>-32,93; 35,48</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 13,1</t>
+          <t>-10,83; 12,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 8,48</t>
+          <t>-10,8; 9,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 7,7</t>
+          <t>-8,51; 7,8</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 45,12</t>
+          <t>-26,32; 42,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 34,36</t>
+          <t>-31,38; 38,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 27,87</t>
+          <t>-23,33; 26,23</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,33</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 17,89</t>
+          <t>-32,59; 34,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-16,4; 19,14</t>
+          <t>-23,67; 21,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 13,07</t>
+          <t>-21,39; 19,25</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>-0,77%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 81,28</t>
+          <t>-64,17; 167,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 56,2</t>
+          <t>-36,9; 55,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 40,15</t>
+          <t>-41,18; 55,78</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,01</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,72</t>
+          <t>-6,29; 7,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 4,52</t>
+          <t>-6,93; 5,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 4,26</t>
+          <t>-4,33; 4,72</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,05%</t>
+          <t>-1,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,03%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 31,19</t>
+          <t>-23,73; 36,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,57; 21,03</t>
+          <t>-24,84; 23,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 18,99</t>
+          <t>-16,14; 20,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.239436252163514</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.6676164178904875</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2019382737250358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 7,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 6,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 4,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.990814036394917</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.012510667753672</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.399048281343891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,16%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,97%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.07627392510593</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.045876496028834</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.42699726136884</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-42,97; 80,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-39,21; 53,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-32,93; 35,48</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.09869994034198926</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.03916565842595928</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01346542133855287</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3848287327761323</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3813443686005342</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3044319874194899</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,83; 12,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; 9,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 7,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.9748585348475648</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.5495931791400421</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4330030717336807</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,3%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.363780370314904</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.02855961962973663</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6993400429341046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-26,32; 42,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,38; 38,92</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-23,33; 26,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.138954311923</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.01992958475011</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.054628582709901</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.43242931722413</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.30156310962375</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.564886341826524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-32,59; 34,21</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-23,67; 21,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-21,39; 19,25</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.038731703717315</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.0009280879172179344</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.02129670437101464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,03%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.2810862219232843</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3148155574991356</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2250730526426719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-64,17; 167,46</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-36,9; 55,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-41,18; 55,78</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.465726921851563</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.4062656793304458</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.301728835562773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.598423856080944</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.1452398912570096</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.06154536910091823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 7,59</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 5,36</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-4,33; 4,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-33.85939409519176</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.16190474507432</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-20.42356422819298</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,74%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,03%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>33.07331865672457</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>23.2584106413588</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>20.47089554590728</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-23,73; 36,33</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 23,43</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-16,14; 20,89</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.04638638833801482</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.002783834319810419</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.001424707197587633</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6536915168054129</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3775587145237286</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.394048283962214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.551589580125145</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.5634590017332346</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5601471603396778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.126521704655506</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1891821552465756</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.4219499466895149</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.12908091210989</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.722301984365586</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-4.188671838103008</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.479472065453077</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.864990342760953</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.40622743630442</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.04663385446316488</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.007297306054471502</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01680924497220429</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2228676180095386</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2373750539010491</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1524597041017703</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.408104537519707</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.254354768481388</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2300172709857289</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
